--- a/archives/new_result_summary.xlsx
+++ b/archives/new_result_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12855"/>
+    <workbookView windowWidth="22215" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="381">
   <si>
     <t>Average of val_average_acc_mean</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>yellow means new added results.</t>
+  </si>
+  <si>
+    <t>red means reevaluating these configurations</t>
   </si>
   <si>
     <t>seed</t>
@@ -1170,12 +1173,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1184,27 +1187,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1217,15 +1233,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,38 +1308,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1290,9 +1323,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1300,29 +1332,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1361,7 +1371,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,7 +1497,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,157 +1545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,11 +1559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1562,7 +1578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,6 +1613,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1614,15 +1648,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1631,172 +1656,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1828,6 +1838,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1901,7 @@
     <cellStyle name="Percent" xfId="47" builtinId="5"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="72">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1994,6 +2013,286 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4865,7 +5164,7 @@
   <dataFields count="1">
     <dataField name="Average of val_average_acc_mean" fld="3" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="16">
+  <formats count="44">
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
@@ -5006,6 +5305,258 @@
         <references count="1">
           <reference field="2" count="1">
             <x v="42"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="21">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="25">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="32"/>
           </reference>
         </references>
       </pivotArea>
@@ -5553,6 +6104,260 @@
   <dataFields count="1">
     <dataField name="StdDev of val_average_acc_mean" fld="3" subtotal="stdDev" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="28">
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="39"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="41"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5820,10 +6625,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:P50"/>
+  <dimension ref="A3:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86" defaultRowHeight="15.75"/>
@@ -5896,117 +6701,117 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+    <row r="5" s="11" customFormat="1" spans="1:16">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="11">
         <v>0.318588892666667</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="11">
         <v>0.978899995</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="11">
         <v>0.280413731865183</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="11">
         <v>0.125450000166893</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="11">
         <v>0.485915785876244</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="11">
         <v>0.0110870254926267</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="11">
         <v>9.89711135978212e-5</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="11">
         <v>0.0398381285217182</v>
       </c>
-      <c r="O5" t="e">
+      <c r="O5" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="11">
         <v>0.345308886041392</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="6" s="11" customFormat="1" spans="1:16">
+      <c r="A6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="11">
         <v>0.281366676333333</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="11">
         <v>0.979485730333333</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="11">
         <v>0.177048812172411</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="11">
         <v>0.127133339643478</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="11">
         <v>0.444083699616071</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="11">
         <v>0.00527244430717236</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="11">
         <v>0.00013092625941519</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="11">
         <v>0.0123609128050995</v>
       </c>
-      <c r="O6" t="e">
+      <c r="O6" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="11">
         <v>0.373294362915657</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
+    <row r="7" s="11" customFormat="1" spans="1:16">
+      <c r="A7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="11">
         <v>0.359422227</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="11">
         <v>0.940700014333333</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="11">
         <v>0.25820919866364</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="11">
         <v>0.128649994730949</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="11">
         <v>0.480364431472187</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="11">
         <v>0.014091466396236</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="11">
         <v>0.0666469370555023</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="11">
         <v>0.00620000964729865</v>
       </c>
-      <c r="O7" t="e">
+      <c r="O7" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="11">
         <v>0.326722296614313</v>
       </c>
     </row>
@@ -6232,41 +7037,41 @@
         <v>0.0867836894255655</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" t="s">
+    <row r="14" s="11" customFormat="1" spans="1:16">
+      <c r="A14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="11">
         <v>0.366344451666667</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>0.976295232666667</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="11">
         <v>0.288984671091184</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="11">
         <v>0.0978666692972183</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="11">
         <v>0.499273973557077</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="11">
         <v>0.00563285672903536</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="11">
         <v>0.00102043392359811</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="11">
         <v>0.0576189647918014</v>
       </c>
-      <c r="O14" t="e">
+      <c r="O14" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="11">
         <v>0.339305932969296</v>
       </c>
     </row>
@@ -6600,41 +7405,41 @@
         <v>0.106325270121517</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" t="s">
+    <row r="24" s="11" customFormat="1" spans="1:16">
+      <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="11">
         <v>0.183594440666667</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="11">
         <v>0.977238098666667</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <v>0.171059558843412</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="11">
         <v>0.0888166651129722</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="11">
         <v>0.408449295964321</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="11">
         <v>0.00365347500206727</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="11">
         <v>0.00334288567888112</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="11">
         <v>0.0196885900139956</v>
       </c>
-      <c r="O24" t="e">
+      <c r="O24" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="11">
         <v>0.393600506908751</v>
       </c>
     </row>
@@ -6676,79 +7481,79 @@
         <v>0.336183548968172</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" t="s">
+    <row r="26" s="11" customFormat="1" spans="1:16">
+      <c r="A26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="11">
         <v>0.151616667666667</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="11">
         <v>0.975719034333333</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="11">
         <v>0.167077918691737</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="11">
         <v>0.0770166665315628</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="11">
         <v>0.396025752860677</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="11">
         <v>0.00701310565338769</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="11">
         <v>0.000464524039112072</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="11">
         <v>0.0199487964562762</v>
       </c>
-      <c r="O26" t="e">
+      <c r="O26" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="11">
         <v>0.40100611547419</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" t="s">
+    <row r="27" s="11" customFormat="1" spans="1:16">
+      <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="11">
         <v>0.183116669333333</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="11">
         <v>0.972276191</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="11">
         <v>0.171761214904175</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="11">
         <v>0.0741666704416275</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="11">
         <v>0.405562889615415</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="11">
         <v>0.0244219180325565</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="11">
         <v>0.00398403961331311</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="11">
         <v>0.0210653302459887</v>
       </c>
-      <c r="O27" t="e">
+      <c r="O27" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="11">
         <v>0.392692144845301</v>
       </c>
     </row>
@@ -6780,73 +7585,73 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="5" t="s">
+    <row r="30" s="11" customFormat="1" spans="1:16">
+      <c r="A30" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="11">
         <v>0.37445555627346</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="11">
         <v>0.903938094774882</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="11">
         <v>0.343112856149673</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="11">
         <v>0.540502169066005</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="11">
         <v>0.128538845259062</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="11">
         <v>0.0618146724672423</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="11">
         <v>0.0386642767129327</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="11">
         <v>0.282740053149749</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="5" t="s">
+    <row r="31" s="11" customFormat="1" spans="1:16">
+      <c r="A31" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="11">
         <v>0.273083329200744</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="11">
         <v>0.979100008805592</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="11">
         <v>0.397405534982681</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="11">
         <v>0.129683330655097</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="11">
         <v>0.622912036875883</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K31" t="e">
+      <c r="K31" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="11">
         <v>0.000111589149487999</v>
       </c>
-      <c r="M31" t="e">
+      <c r="M31" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" t="e">
+      <c r="O31" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="11">
         <v>0.399278725377767</v>
       </c>
     </row>
@@ -6926,73 +7731,73 @@
         <v>0.10821379425696</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="5" t="s">
+    <row r="34" s="11" customFormat="1" spans="1:16">
+      <c r="A34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="11">
         <v>0.978100021680196</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="11">
         <v>0.137336462736129</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="11">
         <v>0.0981166660785675</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="11">
         <v>0.633950638771057</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="11">
         <v>0.000150504411226533</v>
       </c>
-      <c r="M34" t="e">
+      <c r="M34" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" t="e">
+      <c r="O34" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="11">
         <v>0.471449924356672</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="5" t="s">
+    <row r="35" s="12" customFormat="1" spans="1:16">
+      <c r="A35" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="12">
         <v>0.227566674351692</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="12">
         <v>0.977495233217875</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="12">
         <v>0.36463251709938</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="12">
         <v>0.0999500006437301</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="12">
         <v>0.604105815291404</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K35" t="e">
+      <c r="K35" s="12" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="12">
         <v>0.000197073745241449</v>
       </c>
-      <c r="M35" t="e">
+      <c r="M35" s="12" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O35" t="e">
+      <c r="O35" s="12" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="12">
         <v>0.417507202473004</v>
       </c>
     </row>
@@ -7224,41 +8029,41 @@
         <v>0.342439451765379</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42" s="5" t="s">
+    <row r="42" s="11" customFormat="1" spans="1:16">
+      <c r="A42" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="11">
         <v>0.212150007486343</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="11">
         <v>0.942190488179524</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="11">
         <v>0.372518599033355</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="11">
         <v>0.0956166684627533</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="11">
         <v>0.584476123253504</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="K42" t="e">
+      <c r="K42" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="11">
         <v>0.0617656575900924</v>
       </c>
-      <c r="M42" t="e">
+      <c r="M42" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O42" t="e">
+      <c r="O42" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="11">
         <v>0.403495969901177</v>
       </c>
     </row>
@@ -7300,41 +8105,41 @@
         <v>0.288290257211553</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="5" t="s">
+    <row r="44" s="11" customFormat="1" spans="1:16">
+      <c r="A44" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="11">
         <v>0.100000001490116</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="11">
         <v>0.944166660308837</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="11">
         <v>0.361258536577224</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="11">
         <v>0.11065000295639</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="11">
         <v>0.56740142032504</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K44" t="e">
+      <c r="K44" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="11">
         <v>0.0601103965617372</v>
       </c>
-      <c r="M44" t="e">
+      <c r="M44" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" t="e">
+      <c r="O44" s="11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="11">
         <v>0.42489139549932</v>
       </c>
     </row>
@@ -7437,6 +8242,11 @@
     <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -7516,18 +8326,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -7544,7 +8354,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -7561,7 +8371,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -7578,7 +8388,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -7595,7 +8405,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -7612,7 +8422,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -7629,7 +8439,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -7646,7 +8456,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -7663,7 +8473,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -7680,7 +8490,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -7697,7 +8507,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -7714,7 +8524,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -7731,7 +8541,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -7748,7 +8558,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -7765,7 +8575,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -7782,7 +8592,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -7799,7 +8609,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -7816,7 +8626,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -7833,7 +8643,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -7850,7 +8660,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -7867,7 +8677,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -7884,7 +8694,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
         <v>4</v>
@@ -7901,7 +8711,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
         <v>4</v>
@@ -7918,7 +8728,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>5</v>
@@ -7935,7 +8745,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -7952,7 +8762,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>5</v>
@@ -7969,7 +8779,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
         <v>5</v>
@@ -7986,7 +8796,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>5</v>
@@ -8003,7 +8813,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
@@ -8020,7 +8830,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>5</v>
@@ -8037,7 +8847,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -8054,7 +8864,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -8071,7 +8881,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
@@ -8088,7 +8898,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -8105,7 +8915,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -8122,7 +8932,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -8139,7 +8949,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>5</v>
@@ -8156,7 +8966,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
         <v>5</v>
@@ -8173,7 +8983,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
         <v>5</v>
@@ -8190,7 +9000,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
         <v>5</v>
@@ -8207,7 +9017,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>5</v>
@@ -8224,7 +9034,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>5</v>
@@ -8241,7 +9051,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
         <v>5</v>
@@ -8258,7 +9068,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -8275,7 +9085,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -8292,7 +9102,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -8309,7 +9119,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -8326,7 +9136,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -8343,7 +9153,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -8360,7 +9170,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -8377,7 +9187,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -8394,7 +9204,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -8411,7 +9221,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -8428,7 +9238,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -8445,7 +9255,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -8462,7 +9272,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -8479,7 +9289,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -8496,7 +9306,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -8513,7 +9323,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -8530,7 +9340,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -8547,7 +9357,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -8564,7 +9374,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -8581,7 +9391,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -8598,7 +9408,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -8615,7 +9425,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -8632,7 +9442,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -8649,7 +9459,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -8666,7 +9476,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
         <v>4</v>
@@ -8683,7 +9493,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
         <v>4</v>
@@ -8700,7 +9510,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
         <v>4</v>
@@ -8717,7 +9527,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B72" t="s">
         <v>4</v>
@@ -8734,7 +9544,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -8751,7 +9561,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
         <v>4</v>
@@ -8768,7 +9578,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B75" t="s">
         <v>4</v>
@@ -8785,7 +9595,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B76" t="s">
         <v>4</v>
@@ -8802,7 +9612,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B77" t="s">
         <v>4</v>
@@ -8819,7 +9629,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B78" t="s">
         <v>4</v>
@@ -8836,7 +9646,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
         <v>4</v>
@@ -8853,7 +9663,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
         <v>4</v>
@@ -8870,7 +9680,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B81" t="s">
         <v>4</v>
@@ -8887,7 +9697,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B82" t="s">
         <v>4</v>
@@ -8904,7 +9714,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B83" t="s">
         <v>4</v>
@@ -8921,7 +9731,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -8938,7 +9748,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
         <v>4</v>
@@ -8955,7 +9765,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
         <v>4</v>
@@ -8972,7 +9782,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
         <v>4</v>
@@ -8989,7 +9799,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
         <v>4</v>
@@ -9006,7 +9816,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -9023,7 +9833,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
         <v>4</v>
@@ -9040,7 +9850,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
         <v>4</v>
@@ -9057,7 +9867,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -9074,7 +9884,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -9091,7 +9901,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -9108,7 +9918,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -9125,7 +9935,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -9142,7 +9952,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -9159,7 +9969,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -9176,7 +9986,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -9193,7 +10003,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -9210,7 +10020,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -9227,7 +10037,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -9244,7 +10054,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -9261,7 +10071,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -9278,7 +10088,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -9295,7 +10105,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -9312,7 +10122,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -9329,7 +10139,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -9346,7 +10156,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -9363,7 +10173,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -9380,7 +10190,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -9397,7 +10207,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -9414,7 +10224,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -9431,7 +10241,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -9448,7 +10258,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B115" t="s">
         <v>5</v>
@@ -9465,7 +10275,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B116" t="s">
         <v>5</v>
@@ -9482,7 +10292,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B117" t="s">
         <v>5</v>
@@ -9499,7 +10309,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B118" t="s">
         <v>5</v>
@@ -9516,7 +10326,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
         <v>5</v>
@@ -9533,7 +10343,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B120" t="s">
         <v>5</v>
@@ -9550,7 +10360,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B121" t="s">
         <v>5</v>
@@ -9567,7 +10377,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B122" t="s">
         <v>5</v>
@@ -9584,7 +10394,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B123" t="s">
         <v>5</v>
@@ -9601,7 +10411,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B124" t="s">
         <v>5</v>
@@ -9618,7 +10428,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B125" t="s">
         <v>5</v>
@@ -9635,7 +10445,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B126" t="s">
         <v>5</v>
@@ -9652,7 +10462,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B127" t="s">
         <v>5</v>
@@ -9669,7 +10479,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
         <v>5</v>
@@ -9686,7 +10496,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B129" t="s">
         <v>5</v>
@@ -9703,7 +10513,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
@@ -9720,7 +10530,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B131" t="s">
         <v>5</v>
@@ -9737,7 +10547,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B132" t="s">
         <v>5</v>
@@ -9754,7 +10564,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B133" t="s">
         <v>5</v>
@@ -9771,7 +10581,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s">
         <v>5</v>
@@ -9788,7 +10598,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
@@ -9805,7 +10615,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B136" t="s">
         <v>5</v>
@@ -9822,7 +10632,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B137" t="s">
         <v>5</v>
@@ -9839,7 +10649,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
         <v>5</v>
@@ -9856,7 +10666,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B139" t="s">
         <v>5</v>
@@ -9873,7 +10683,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B140" t="s">
         <v>5</v>
@@ -9890,7 +10700,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
         <v>5</v>
@@ -9907,7 +10717,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
         <v>5</v>
@@ -9924,7 +10734,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
         <v>5</v>
@@ -9941,7 +10751,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -9958,7 +10768,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B145" t="s">
         <v>5</v>
@@ -9975,7 +10785,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
@@ -9992,7 +10802,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
         <v>5</v>
@@ -10009,7 +10819,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
         <v>5</v>
@@ -10026,7 +10836,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
@@ -10043,7 +10853,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B150" t="s">
         <v>5</v>
@@ -10060,7 +10870,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B151" t="s">
         <v>5</v>
@@ -10077,7 +10887,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B152" t="s">
         <v>5</v>
@@ -10094,7 +10904,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B153" t="s">
         <v>5</v>
@@ -10111,7 +10921,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B154" t="s">
         <v>5</v>
@@ -10128,7 +10938,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
@@ -10145,7 +10955,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
         <v>4</v>
@@ -10162,7 +10972,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B157" t="s">
         <v>4</v>
@@ -10179,7 +10989,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B158" t="s">
         <v>4</v>
@@ -10196,7 +11006,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B159" t="s">
         <v>4</v>
@@ -10213,7 +11023,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B160" t="s">
         <v>4</v>
@@ -10230,7 +11040,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B161" t="s">
         <v>4</v>
@@ -10247,7 +11057,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B162" t="s">
         <v>4</v>
@@ -10264,7 +11074,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B163" t="s">
         <v>4</v>
@@ -10281,7 +11091,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B164" t="s">
         <v>4</v>
@@ -10298,7 +11108,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B165" t="s">
         <v>4</v>
@@ -10315,7 +11125,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B166" t="s">
         <v>4</v>
@@ -10332,7 +11142,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B167" t="s">
         <v>4</v>
@@ -10349,7 +11159,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B168" t="s">
         <v>4</v>
@@ -10366,7 +11176,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B169" t="s">
         <v>4</v>
@@ -10383,7 +11193,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B170" t="s">
         <v>4</v>
@@ -10400,7 +11210,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B171" t="s">
         <v>4</v>
@@ -10417,7 +11227,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B172" t="s">
         <v>4</v>
@@ -10434,7 +11244,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
         <v>4</v>
@@ -10451,7 +11261,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
         <v>4</v>
@@ -10468,7 +11278,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
         <v>4</v>
@@ -10485,7 +11295,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
         <v>4</v>
@@ -10502,7 +11312,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B177" t="s">
         <v>4</v>
@@ -10519,7 +11329,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>6</v>
@@ -10536,7 +11346,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>6</v>
@@ -10553,7 +11363,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>6</v>
@@ -10570,7 +11380,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>6</v>
@@ -10587,7 +11397,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>6</v>
@@ -10604,7 +11414,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>6</v>
@@ -10621,7 +11431,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>6</v>
@@ -10638,7 +11448,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>6</v>
@@ -10655,7 +11465,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>6</v>
@@ -10672,7 +11482,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>6</v>
@@ -10689,7 +11499,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>6</v>
@@ -10706,7 +11516,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>6</v>
@@ -10723,7 +11533,7 @@
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>6</v>
@@ -10740,7 +11550,7 @@
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>6</v>
@@ -10757,7 +11567,7 @@
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>6</v>
@@ -10774,7 +11584,7 @@
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>6</v>
@@ -10791,7 +11601,7 @@
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>6</v>
@@ -10808,7 +11618,7 @@
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>6</v>
@@ -10825,7 +11635,7 @@
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>6</v>
@@ -10842,7 +11652,7 @@
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>6</v>
@@ -10859,7 +11669,7 @@
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>6</v>
@@ -10876,7 +11686,7 @@
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>6</v>
@@ -10893,7 +11703,7 @@
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>6</v>
@@ -10910,7 +11720,7 @@
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>5</v>
@@ -10927,7 +11737,7 @@
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>6</v>
@@ -10944,7 +11754,7 @@
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>5</v>
@@ -10961,7 +11771,7 @@
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>6</v>
@@ -10978,7 +11788,7 @@
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>5</v>
@@ -10995,7 +11805,7 @@
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>6</v>
@@ -11012,7 +11822,7 @@
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B207" s="7" t="s">
         <v>4</v>
@@ -11029,7 +11839,7 @@
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>4</v>
@@ -11046,7 +11856,7 @@
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B209" s="7" t="s">
         <v>4</v>
@@ -11063,10 +11873,10 @@
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C210" s="9">
         <v>3</v>
@@ -11080,10 +11890,10 @@
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B211" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="B211" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="C211" s="9">
         <v>3</v>
@@ -11097,10 +11907,10 @@
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B212" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C212" s="9">
         <v>3</v>
@@ -11114,10 +11924,10 @@
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B213" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C213" s="9">
         <v>3</v>
@@ -11131,10 +11941,10 @@
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C214" s="9">
         <v>3</v>
@@ -11148,10 +11958,10 @@
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C215" s="9">
         <v>3</v>
@@ -11165,10 +11975,10 @@
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C216" s="9">
         <v>3</v>
@@ -11182,10 +11992,10 @@
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C217" s="9">
         <v>3</v>
@@ -11199,10 +12009,10 @@
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C218" s="9">
         <v>3</v>
@@ -11216,10 +12026,10 @@
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C219" s="9">
         <v>3</v>
@@ -11233,10 +12043,10 @@
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B220" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C220" s="9">
         <v>3</v>
@@ -11250,10 +12060,10 @@
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C221" s="9">
         <v>3</v>
@@ -11267,10 +12077,10 @@
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C222" s="9">
         <v>3</v>
@@ -11284,10 +12094,10 @@
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C223" s="9">
         <v>3</v>
@@ -11301,10 +12111,10 @@
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C224" s="9">
         <v>3</v>
@@ -11318,7 +12128,7 @@
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B225" s="8" t="s">
         <v>8</v>
@@ -11335,7 +12145,7 @@
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B226" s="8" t="s">
         <v>8</v>
@@ -11352,7 +12162,7 @@
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B227" s="8" t="s">
         <v>8</v>
@@ -11369,7 +12179,7 @@
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B228" s="8" t="s">
         <v>8</v>
@@ -11386,7 +12196,7 @@
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B229" s="8" t="s">
         <v>8</v>
@@ -11403,7 +12213,7 @@
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B230" s="8" t="s">
         <v>8</v>
@@ -11420,7 +12230,7 @@
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B231" s="8" t="s">
         <v>8</v>
@@ -11437,7 +12247,7 @@
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B232" s="8" t="s">
         <v>8</v>
@@ -11454,7 +12264,7 @@
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B233" s="8" t="s">
         <v>8</v>
@@ -11471,7 +12281,7 @@
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B234" s="8" t="s">
         <v>8</v>
@@ -11488,7 +12298,7 @@
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B235" s="8" t="s">
         <v>8</v>
@@ -11505,7 +12315,7 @@
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B236" s="8" t="s">
         <v>8</v>
@@ -11522,7 +12332,7 @@
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B237" s="8" t="s">
         <v>8</v>
@@ -11539,7 +12349,7 @@
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B238" s="8" t="s">
         <v>8</v>
@@ -11556,7 +12366,7 @@
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>8</v>
@@ -11573,7 +12383,7 @@
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B240" s="8" t="s">
         <v>8</v>
@@ -11590,7 +12400,7 @@
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B241" s="8" t="s">
         <v>8</v>
@@ -11607,7 +12417,7 @@
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B242" s="8" t="s">
         <v>8</v>
@@ -11624,7 +12434,7 @@
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B243" s="8" t="s">
         <v>8</v>
@@ -11641,7 +12451,7 @@
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B244" s="8" t="s">
         <v>8</v>
@@ -11658,7 +12468,7 @@
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B245" s="8" t="s">
         <v>8</v>
@@ -11675,7 +12485,7 @@
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B246" s="8" t="s">
         <v>8</v>
@@ -11692,7 +12502,7 @@
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B247" s="8" t="s">
         <v>8</v>
@@ -11709,7 +12519,7 @@
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B248" s="8" t="s">
         <v>8</v>
@@ -11726,7 +12536,7 @@
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B249" s="8" t="s">
         <v>8</v>
@@ -11743,7 +12553,7 @@
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B250" s="8" t="s">
         <v>8</v>
@@ -11760,7 +12570,7 @@
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B251" s="8" t="s">
         <v>8</v>
@@ -11777,7 +12587,7 @@
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B252" s="8" t="s">
         <v>8</v>
@@ -11794,7 +12604,7 @@
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B253" s="8" t="s">
         <v>8</v>
@@ -11811,7 +12621,7 @@
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B254" s="8" t="s">
         <v>8</v>
@@ -11828,7 +12638,7 @@
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B255" s="8" t="s">
         <v>8</v>
@@ -11845,7 +12655,7 @@
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B256" s="8" t="s">
         <v>8</v>
@@ -11862,7 +12672,7 @@
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B257" s="8" t="s">
         <v>8</v>
@@ -11879,7 +12689,7 @@
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B258" s="8" t="s">
         <v>8</v>
@@ -11896,7 +12706,7 @@
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B259" s="8" t="s">
         <v>8</v>
@@ -11913,7 +12723,7 @@
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B260" s="8" t="s">
         <v>8</v>
@@ -11930,7 +12740,7 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B261" s="8" t="s">
         <v>8</v>
@@ -11947,7 +12757,7 @@
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B262" s="8" t="s">
         <v>8</v>
@@ -11964,7 +12774,7 @@
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B263" s="8" t="s">
         <v>8</v>
@@ -11981,10 +12791,10 @@
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C264" s="9">
         <v>2</v>
@@ -11998,10 +12808,10 @@
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C265" s="9">
         <v>2</v>
@@ -12015,10 +12825,10 @@
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="8" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C266" s="9">
         <v>2</v>
@@ -12032,10 +12842,10 @@
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C267" s="9">
         <v>2</v>
@@ -12049,10 +12859,10 @@
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C268" s="9">
         <v>2</v>
@@ -12066,10 +12876,10 @@
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C269" s="9">
         <v>2</v>
@@ -12083,10 +12893,10 @@
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C270" s="9">
         <v>2</v>
@@ -12100,10 +12910,10 @@
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C271" s="9">
         <v>2</v>
@@ -12117,10 +12927,10 @@
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C272" s="9">
         <v>2</v>
@@ -12134,10 +12944,10 @@
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C273" s="9">
         <v>2</v>
@@ -12151,10 +12961,10 @@
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C274" s="9">
         <v>2</v>
@@ -12168,10 +12978,10 @@
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C275" s="9">
         <v>2</v>
@@ -12185,10 +12995,10 @@
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C276" s="9">
         <v>2</v>
@@ -12202,10 +13012,10 @@
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C277" s="9">
         <v>2</v>
@@ -12219,10 +13029,10 @@
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C278" s="9">
         <v>2</v>
@@ -12236,10 +13046,10 @@
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C279" s="9">
         <v>1</v>
@@ -12253,10 +13063,10 @@
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C280" s="9">
         <v>1</v>
@@ -12270,10 +13080,10 @@
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C281" s="9">
         <v>1</v>
@@ -12287,10 +13097,10 @@
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C282" s="9">
         <v>1</v>
@@ -12304,10 +13114,10 @@
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C283" s="9">
         <v>1</v>
@@ -12321,10 +13131,10 @@
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="8" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C284" s="9">
         <v>1</v>
@@ -12338,10 +13148,10 @@
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C285" s="9">
         <v>1</v>
@@ -12355,10 +13165,10 @@
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C286" s="9">
         <v>1</v>
@@ -12372,10 +13182,10 @@
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C287" s="9">
         <v>1</v>
@@ -12389,10 +13199,10 @@
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C288" s="9">
         <v>1</v>
@@ -12406,10 +13216,10 @@
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C289" s="9">
         <v>1</v>
@@ -12423,10 +13233,10 @@
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C290" s="9">
         <v>1</v>
@@ -12440,10 +13250,10 @@
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C291" s="9">
         <v>1</v>
@@ -12457,10 +13267,10 @@
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="8" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C292" s="9">
         <v>1</v>
@@ -12474,10 +13284,10 @@
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="8" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C293" s="9">
         <v>1</v>
@@ -12491,10 +13301,10 @@
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B294" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C294" s="10">
         <v>1</v>
@@ -12508,10 +13318,10 @@
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="B295" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>348</v>
       </c>
       <c r="C295" s="10">
         <v>1</v>
@@ -12525,10 +13335,10 @@
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B296" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C296" s="10">
         <v>1</v>
@@ -12542,10 +13352,10 @@
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B297" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C297" s="10">
         <v>1</v>
@@ -12559,10 +13369,10 @@
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B298" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C298" s="10">
         <v>1</v>
@@ -12576,10 +13386,10 @@
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B299" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C299" s="10">
         <v>1</v>
@@ -12593,10 +13403,10 @@
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B300" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C300" s="10">
         <v>1</v>
@@ -12610,10 +13420,10 @@
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B301" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C301" s="10">
         <v>1</v>
@@ -12627,10 +13437,10 @@
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C302" s="10">
         <v>1</v>
@@ -12644,10 +13454,10 @@
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B303" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C303" s="10">
         <v>1</v>
@@ -12661,10 +13471,10 @@
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B304" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C304" s="10">
         <v>1</v>
@@ -12678,10 +13488,10 @@
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C305" s="10">
         <v>1</v>
@@ -12695,10 +13505,10 @@
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B306" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C306" s="10">
         <v>1</v>
@@ -12712,10 +13522,10 @@
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B307" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C307" s="10">
         <v>1</v>
@@ -12729,10 +13539,10 @@
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B308" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C308" s="10">
         <v>1</v>
@@ -12746,10 +13556,10 @@
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B309" s="10" t="s">
         <v>364</v>
-      </c>
-      <c r="B309" s="10" t="s">
-        <v>363</v>
       </c>
       <c r="C309" s="10">
         <v>1</v>
@@ -12763,10 +13573,10 @@
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B310" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C310" s="10">
         <v>1</v>
@@ -12780,10 +13590,10 @@
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B311" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C311" s="10">
         <v>1</v>
@@ -12797,10 +13607,10 @@
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B312" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C312" s="10">
         <v>1</v>
@@ -12814,10 +13624,10 @@
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B313" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C313" s="10">
         <v>1</v>
@@ -12831,10 +13641,10 @@
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B314" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C314" s="10">
         <v>1</v>
@@ -12848,10 +13658,10 @@
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B315" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C315" s="10">
         <v>1</v>
@@ -12865,10 +13675,10 @@
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B316" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C316" s="10">
         <v>1</v>
@@ -12882,10 +13692,10 @@
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B317" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C317" s="10">
         <v>1</v>
@@ -12899,10 +13709,10 @@
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C318" s="10">
         <v>1</v>
@@ -12916,10 +13726,10 @@
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C319" s="10">
         <v>1</v>
@@ -12933,10 +13743,10 @@
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B320" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C320" s="10">
         <v>1</v>
@@ -12950,10 +13760,10 @@
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B321" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C321" s="10">
         <v>1</v>
@@ -12967,10 +13777,10 @@
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B322" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C322" s="10">
         <v>1</v>
@@ -13014,21 +13824,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="3">
         <v>3</v>
@@ -13042,10 +13852,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>263</v>
       </c>
       <c r="C3" s="3">
         <v>3</v>
@@ -13059,10 +13869,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
@@ -13076,10 +13886,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -13093,10 +13903,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C6" s="3">
         <v>3</v>
@@ -13110,10 +13920,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -13127,10 +13937,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C8" s="3">
         <v>3</v>
@@ -13144,10 +13954,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C9" s="3">
         <v>3</v>
@@ -13161,10 +13971,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C10" s="3">
         <v>3</v>
@@ -13178,10 +13988,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -13195,10 +14005,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C12" s="3">
         <v>3</v>
@@ -13212,10 +14022,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C13" s="3">
         <v>3</v>
@@ -13229,10 +14039,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -13246,10 +14056,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -13263,10 +14073,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
@@ -13280,7 +14090,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>8</v>
@@ -13297,7 +14107,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>8</v>
@@ -13314,7 +14124,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>8</v>
@@ -13331,7 +14141,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>8</v>
@@ -13348,7 +14158,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
@@ -13365,7 +14175,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
@@ -13382,7 +14192,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>8</v>
@@ -13399,7 +14209,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>8</v>
@@ -13416,7 +14226,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>8</v>
@@ -13433,7 +14243,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>8</v>
@@ -13450,7 +14260,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
@@ -13467,7 +14277,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>8</v>
@@ -13484,7 +14294,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>8</v>
@@ -13501,7 +14311,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>8</v>
@@ -13518,7 +14328,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
@@ -13535,7 +14345,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>8</v>
@@ -13552,7 +14362,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>8</v>
@@ -13569,7 +14379,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>8</v>
@@ -13586,7 +14396,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>8</v>
@@ -13603,7 +14413,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>8</v>
@@ -13620,7 +14430,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>8</v>
@@ -13637,7 +14447,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>8</v>
@@ -13654,7 +14464,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>8</v>
@@ -13671,7 +14481,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>8</v>
@@ -13688,7 +14498,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>8</v>
@@ -13705,7 +14515,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>8</v>
@@ -13722,7 +14532,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>8</v>
@@ -13739,7 +14549,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>8</v>
@@ -13756,7 +14566,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>8</v>
@@ -13773,7 +14583,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>8</v>
@@ -13790,7 +14600,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>8</v>
@@ -13807,7 +14617,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>8</v>
@@ -13824,7 +14634,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>8</v>
@@ -13841,7 +14651,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>8</v>
@@ -13858,7 +14668,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>8</v>
@@ -13875,7 +14685,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>8</v>
@@ -13892,7 +14702,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>8</v>
@@ -13909,7 +14719,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>8</v>
@@ -13926,7 +14736,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>8</v>
@@ -13943,10 +14753,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C56" s="3">
         <v>2</v>
@@ -13960,10 +14770,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -13977,10 +14787,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C58" s="3">
         <v>2</v>
@@ -13994,10 +14804,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C59" s="3">
         <v>2</v>
@@ -14011,10 +14821,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C60" s="3">
         <v>2</v>
@@ -14028,10 +14838,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" s="3">
         <v>2</v>
@@ -14045,10 +14855,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C62" s="3">
         <v>2</v>
@@ -14062,10 +14872,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C63" s="3">
         <v>2</v>
@@ -14079,10 +14889,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="3">
         <v>2</v>
@@ -14096,10 +14906,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
@@ -14113,10 +14923,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C66" s="3">
         <v>2</v>
@@ -14130,10 +14940,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C67" s="3">
         <v>2</v>
@@ -14147,10 +14957,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C68" s="3">
         <v>2</v>
@@ -14164,10 +14974,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C69" s="3">
         <v>2</v>
@@ -14181,10 +14991,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C70" s="3">
         <v>2</v>
@@ -14198,10 +15008,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C71" s="3">
         <v>1</v>
@@ -14215,10 +15025,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C72" s="3">
         <v>1</v>
@@ -14232,10 +15042,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C73" s="3">
         <v>1</v>
@@ -14249,10 +15059,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C74" s="3">
         <v>1</v>
@@ -14266,10 +15076,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C75" s="3">
         <v>1</v>
@@ -14283,10 +15093,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C76" s="3">
         <v>1</v>
@@ -14300,10 +15110,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C77" s="3">
         <v>1</v>
@@ -14317,10 +15127,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C78" s="3">
         <v>1</v>
@@ -14334,10 +15144,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C79" s="3">
         <v>1</v>
@@ -14351,10 +15161,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C80" s="3">
         <v>1</v>
@@ -14368,10 +15178,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C81" s="3">
         <v>1</v>
@@ -14385,10 +15195,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C82" s="3">
         <v>1</v>
@@ -14402,10 +15212,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C83" s="3">
         <v>1</v>
@@ -14419,10 +15229,10 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C84" s="3">
         <v>1</v>
@@ -14436,10 +15246,10 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C85" s="3">
         <v>1</v>
